--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.47</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -971,4 +972,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -980,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,17 +992,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1027,14 +1070,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1043,14 +1108,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1059,13 +1146,2619 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3657,7 +3658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3668,17 +3669,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3688,14 +3709,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.25</v>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3704,14 +3747,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3720,14 +3785,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3736,14 +3823,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.25</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3752,13 +3861,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4398,7 +4399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4409,17 +4410,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4429,14 +4450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.01</v>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4445,14 +4488,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.25</v>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4461,14 +4526,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="5">
@@ -4477,14 +4648,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -4493,14 +4664,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -4509,13 +4680,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300088-长信科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>17.25</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4178,136 +4289,6 @@
       </c>
       <c r="H70" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005371</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加心悦灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005372</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加心悦灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4372,36 +4353,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>005371</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>中加心悦灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4410,36 +4391,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>005372</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>中加心悦灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4448,6 +4427,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4541,7 +4652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
